--- a/Spreadsheet_CouncilDistrictUpdate.xlsx
+++ b/Spreadsheet_CouncilDistrictUpdate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/themollycox/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mists/Projects/sa2020/sa2020-ccd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A7AA94B-6A53-9040-8A20-A2A9ACA033CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966D5E06-8B9E-1547-BD3C-DBC77827E758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="500" windowWidth="27460" windowHeight="19740" xr2:uid="{84E90657-3C81-CB41-9535-B3C8CBF6196B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{84E90657-3C81-CB41-9535-B3C8CBF6196B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +261,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,11 +283,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -600,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A09F7AB-8772-5343-AEDC-C41FADD8D195}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,46 +638,46 @@
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -708,68 +718,68 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -778,68 +788,68 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
+    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -848,14 +858,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>62</v>
       </c>
     </row>
